--- a/app/Licenciatura_em_Gestao_de_Mercados_Turisticos.xlsx
+++ b/app/Licenciatura_em_Gestao_de_Mercados_Turisticos.xlsx
@@ -45,6 +45,809 @@
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
+  <si>
+    <t>UNIVERSIDADE EDUARDO MONDLANE</t>
+  </si>
+  <si>
+    <t>BOLETIM DE MATRÍCULA</t>
+  </si>
+  <si>
+    <t>Faculdade de Letras e Ciencias Sociais</t>
+  </si>
+  <si>
+    <t>Licenciatura em Administração Pública</t>
+  </si>
+  <si>
+    <t>Ano Lectivo:</t>
+  </si>
+  <si>
+    <t>Número de Estudante:</t>
+  </si>
+  <si>
+    <t>I.DADOS PESSOAIS</t>
+  </si>
+  <si>
+    <t>Apelido</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Nome Completo</t>
+  </si>
+  <si>
+    <t>Elisio</t>
+  </si>
+  <si>
+    <t>Data de Nascimento</t>
+  </si>
+  <si>
+    <t>Filho de</t>
+  </si>
+  <si>
+    <t>E de</t>
+  </si>
+  <si>
+    <t>Natural de</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Nacionalidade</t>
+  </si>
+  <si>
+    <t>Estado Civil</t>
+  </si>
+  <si>
+    <t>Documento de Identificação</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Emitido Por</t>
+  </si>
+  <si>
+    <t>Em</t>
+  </si>
+  <si>
+    <t>II.ENDEREÇO - TEMPO LECTIVO</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Rua</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Telefone Fixo</t>
+  </si>
+  <si>
+    <t>Quarteirão</t>
+  </si>
+  <si>
+    <t>Tel. Emergencia</t>
+  </si>
+  <si>
+    <t>III. HISTORIAL ACADÉMICO</t>
+  </si>
+  <si>
+    <t>Ano de conclusão do nível anterior</t>
+  </si>
+  <si>
+    <t>Nota Final</t>
+  </si>
+  <si>
+    <t>Local de Conclusão</t>
+  </si>
+  <si>
+    <t>Província</t>
+  </si>
+  <si>
+    <t>IV. COMPROMISSO DE HONRA</t>
+  </si>
+  <si>
+    <t>Juro por minhha honra que todos os dados são verdadeiros e fidedignos</t>
+  </si>
+  <si>
+    <t>Data automática</t>
+  </si>
+  <si>
+    <t>Assinatura do estudante</t>
+  </si>
+  <si>
+    <t>_______________________________________________________</t>
+  </si>
+  <si>
+    <t>Universidade Eduardo Mondlane</t>
+  </si>
+  <si>
+    <t>Escola Superior de Hotelaria e Turismo</t>
+  </si>
+  <si>
+    <t>Licenciatura em Gestao de Mercados Turisticos</t>
+  </si>
+  <si>
+    <t>Zandamela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananias Vitorino </t>
+  </si>
+  <si>
+    <t>1988-06-06</t>
+  </si>
+  <si>
+    <t>Vitorino M. Zandamel</t>
+  </si>
+  <si>
+    <t>Luisa Venancio Zucula</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Moçambique</t>
+  </si>
+  <si>
+    <t>Solteiro</t>
+  </si>
+  <si>
+    <t>Talao de Carta de Conducao</t>
+  </si>
+  <si>
+    <t>+258820920578</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Joaquim Chissano</t>
+  </si>
+  <si>
+    <t>Zacarias</t>
+  </si>
+  <si>
+    <t>Cleria Alberto</t>
+  </si>
+  <si>
+    <t>1992-08-21</t>
+  </si>
+  <si>
+    <t>Alberto Zacarias</t>
+  </si>
+  <si>
+    <t>Urraca Jose</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>080101668310M</t>
+  </si>
+  <si>
+    <t>+258820657195</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Muele</t>
+  </si>
+  <si>
+    <t>Wetela</t>
+  </si>
+  <si>
+    <t>Marcia Alzira</t>
+  </si>
+  <si>
+    <t>1989-03-09</t>
+  </si>
+  <si>
+    <t>Incognito</t>
+  </si>
+  <si>
+    <t>Alzira Wetela</t>
+  </si>
+  <si>
+    <t>080100180477M</t>
+  </si>
+  <si>
+    <t>+258828129708</t>
+  </si>
+  <si>
+    <t>Utui</t>
+  </si>
+  <si>
+    <t>Sofia Paulo</t>
+  </si>
+  <si>
+    <t>1990-05-05</t>
+  </si>
+  <si>
+    <t>Paulo Laquene Utui</t>
+  </si>
+  <si>
+    <t>Lina Simone Sumbane</t>
+  </si>
+  <si>
+    <t>080801135917N</t>
+  </si>
+  <si>
+    <t>+258829188853</t>
+  </si>
+  <si>
+    <t>Siquice</t>
+  </si>
+  <si>
+    <t>Vania Joaquim</t>
+  </si>
+  <si>
+    <t>1997-07-01</t>
+  </si>
+  <si>
+    <t>Joaquim Francisco</t>
+  </si>
+  <si>
+    <t>Albertina Antonio Cuamba</t>
+  </si>
+  <si>
+    <t>081002526735C</t>
+  </si>
+  <si>
+    <t>+258842393850</t>
+  </si>
+  <si>
+    <t>Escola 29 de Setembro</t>
+  </si>
+  <si>
+    <t>Siebo</t>
+  </si>
+  <si>
+    <t>Sitama Mangaca</t>
+  </si>
+  <si>
+    <t>1996-10-27</t>
+  </si>
+  <si>
+    <t>Bonifacio Emanuel</t>
+  </si>
+  <si>
+    <t>Maboga Nafu Siebo</t>
+  </si>
+  <si>
+    <t>110202514178B</t>
+  </si>
+  <si>
+    <t>+258827601921</t>
+  </si>
+  <si>
+    <t>Escola Josina Machel</t>
+  </si>
+  <si>
+    <t>Rodrigues</t>
+  </si>
+  <si>
+    <t>Sintia Da Gina</t>
+  </si>
+  <si>
+    <t>1997-11-05</t>
+  </si>
+  <si>
+    <t>Rodrigues Joaquim Nhabomba</t>
+  </si>
+  <si>
+    <t>Elisa Lopes Cumbane</t>
+  </si>
+  <si>
+    <t>08010183677M</t>
+  </si>
+  <si>
+    <t>+258822907784</t>
+  </si>
+  <si>
+    <t>Outra - Prov Inhambane</t>
+  </si>
+  <si>
+    <t>Ripanga</t>
+  </si>
+  <si>
+    <t>Simon Jose</t>
+  </si>
+  <si>
+    <t>1994-04-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jose Mateus Ripanga</t>
+  </si>
+  <si>
+    <t>Bilha Isac Mugabe</t>
+  </si>
+  <si>
+    <t>110100253360B</t>
+  </si>
+  <si>
+    <t>+258840353143</t>
+  </si>
+  <si>
+    <t>Novela</t>
+  </si>
+  <si>
+    <t>Edson Andre</t>
+  </si>
+  <si>
+    <t>1997-05-06</t>
+  </si>
+  <si>
+    <t>Grabriel Beliz Novela</t>
+  </si>
+  <si>
+    <t>Aline Da Pascoa Moiane</t>
+  </si>
+  <si>
+    <t>110502081070S</t>
+  </si>
+  <si>
+    <t>+258844747071</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Namaacha</t>
+  </si>
+  <si>
+    <t>Nhantumbo</t>
+  </si>
+  <si>
+    <t>Nelma Otilia Euselio</t>
+  </si>
+  <si>
+    <t>1997-07-11</t>
+  </si>
+  <si>
+    <t>Euselio Afonso Nhantumbo</t>
+  </si>
+  <si>
+    <t>Lisete Fernando Sambo</t>
+  </si>
+  <si>
+    <t>090102872725C</t>
+  </si>
+  <si>
+    <t>+258823370025</t>
+  </si>
+  <si>
+    <t>Escola Secundaria do Xai-Xai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dadiva Francisco </t>
+  </si>
+  <si>
+    <t>1994-09-20</t>
+  </si>
+  <si>
+    <t>Francisco Albino Nhantumbo</t>
+  </si>
+  <si>
+    <t>Alfa Manuel Joao</t>
+  </si>
+  <si>
+    <t>080101666930P</t>
+  </si>
+  <si>
+    <t>+258829694716</t>
+  </si>
+  <si>
+    <t>Nhamune</t>
+  </si>
+  <si>
+    <t>Marciafloradoarnaldo</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Mutemba</t>
+  </si>
+  <si>
+    <t>Laurencia Zacarias</t>
+  </si>
+  <si>
+    <t>1994-09-15</t>
+  </si>
+  <si>
+    <t>Zacarias Jaime Mutemba</t>
+  </si>
+  <si>
+    <t>Amelia Francisco</t>
+  </si>
+  <si>
+    <t>+826175809</t>
+  </si>
+  <si>
+    <t>Muetela</t>
+  </si>
+  <si>
+    <t>Antonio Joao</t>
+  </si>
+  <si>
+    <t>1992-08-11</t>
+  </si>
+  <si>
+    <t>Joao Antonio Muetela</t>
+  </si>
+  <si>
+    <t>Sara Moises Cuna</t>
+  </si>
+  <si>
+    <t>110100697111I</t>
+  </si>
+  <si>
+    <t>+258827491779</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Quisse Mavota</t>
+  </si>
+  <si>
+    <t>Moine</t>
+  </si>
+  <si>
+    <t>Vanusa Francisca</t>
+  </si>
+  <si>
+    <t>1996-08-26</t>
+  </si>
+  <si>
+    <t>Nao Aplicavel</t>
+  </si>
+  <si>
+    <t>Tessalia Ester Mione</t>
+  </si>
+  <si>
+    <t>+258826763878</t>
+  </si>
+  <si>
+    <t>Outra - Cid.Maputo</t>
+  </si>
+  <si>
+    <t>Mauaie</t>
+  </si>
+  <si>
+    <t>Valter Palmira</t>
+  </si>
+  <si>
+    <t>1992-08-10</t>
+  </si>
+  <si>
+    <t>Pai Incognito</t>
+  </si>
+  <si>
+    <t>Palmira Jotamo Mauaie</t>
+  </si>
+  <si>
+    <t>080101487455C</t>
+  </si>
+  <si>
+    <t>+258820674173</t>
+  </si>
+  <si>
+    <t>Marques</t>
+  </si>
+  <si>
+    <t>Bertino Isaquiel Jose</t>
+  </si>
+  <si>
+    <t>1994-05-15</t>
+  </si>
+  <si>
+    <t>Hortencio J. Marques</t>
+  </si>
+  <si>
+    <t>Ancha Isaquiel</t>
+  </si>
+  <si>
+    <t>110500700382B</t>
+  </si>
+  <si>
+    <t>+258848996207</t>
+  </si>
+  <si>
+    <t>Mahumane</t>
+  </si>
+  <si>
+    <t>Nilza Paulo</t>
+  </si>
+  <si>
+    <t>1993-06-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulo Antonio Junior </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felizarda Fernando </t>
+  </si>
+  <si>
+    <t>090100585436Q</t>
+  </si>
+  <si>
+    <t>+258820705720</t>
+  </si>
+  <si>
+    <t>Macamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fidacia Azarias Muchine </t>
+  </si>
+  <si>
+    <t>1992-08-14</t>
+  </si>
+  <si>
+    <t>Azarias Muchine Malotele</t>
+  </si>
+  <si>
+    <t>Telma Mamitelane Neves</t>
+  </si>
+  <si>
+    <t>080100649900I</t>
+  </si>
+  <si>
+    <t>+258823959876</t>
+  </si>
+  <si>
+    <t>Outra -Prov Niassa</t>
+  </si>
+  <si>
+    <t>Domingos Nelson</t>
+  </si>
+  <si>
+    <t>1997-09-24</t>
+  </si>
+  <si>
+    <t>Nelson Wanicela Macamo</t>
+  </si>
+  <si>
+    <t>Lionor Domingos SigaÚque</t>
+  </si>
+  <si>
+    <t>110101322587N</t>
+  </si>
+  <si>
+    <t>+258848903691</t>
+  </si>
+  <si>
+    <t>Outra - Prov Maputo</t>
+  </si>
+  <si>
+    <t>Justino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelaide Da Graca </t>
+  </si>
+  <si>
+    <t>1998-06-03</t>
+  </si>
+  <si>
+    <t>Adolfo Jorge Justino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anita Jose Sozinho </t>
+  </si>
+  <si>
+    <t>050102101940J</t>
+  </si>
+  <si>
+    <t>+258848454430</t>
+  </si>
+  <si>
+    <t>Outra - Prov Tete</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farida Raimundo </t>
+  </si>
+  <si>
+    <t>1995-09-24</t>
+  </si>
+  <si>
+    <t>Raimundo Bartolomeu Dias</t>
+  </si>
+  <si>
+    <t>Hassiba Saide Abdula</t>
+  </si>
+  <si>
+    <t>080100358341S</t>
+  </si>
+  <si>
+    <t>+258820046168</t>
+  </si>
+  <si>
+    <t>Constantino</t>
+  </si>
+  <si>
+    <t>Irisalva Felizarda</t>
+  </si>
+  <si>
+    <t>1997-04-14</t>
+  </si>
+  <si>
+    <t>Pascoal Constantino</t>
+  </si>
+  <si>
+    <t>Maria Luciano</t>
+  </si>
+  <si>
+    <t>080100504264Q</t>
+  </si>
+  <si>
+    <t>+258845081809</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>Ussene Ernesto</t>
+  </si>
+  <si>
+    <t>1995-08-10</t>
+  </si>
+  <si>
+    <t>Ernesto Cinema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maimuna Ussene Mussa Aly </t>
+  </si>
+  <si>
+    <t>080101897334J</t>
+  </si>
+  <si>
+    <t>+258827021743</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Emilia Dausse</t>
+  </si>
+  <si>
+    <t>Chibindje</t>
+  </si>
+  <si>
+    <t>Ana Jenifer Jorge</t>
+  </si>
+  <si>
+    <t>1995-11-24</t>
+  </si>
+  <si>
+    <t>Jorge Mario Chibindje</t>
+  </si>
+  <si>
+    <t>Aida Jacinto Magaia</t>
+  </si>
+  <si>
+    <t>110100320751N</t>
+  </si>
+  <si>
+    <t>+258820547348</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Laulane</t>
+  </si>
+  <si>
+    <t>Chambela</t>
+  </si>
+  <si>
+    <t>Tienia Orlando</t>
+  </si>
+  <si>
+    <t>1996-01-25</t>
+  </si>
+  <si>
+    <t>Orlando Alexandre Chambela</t>
+  </si>
+  <si>
+    <t>Ercilia Pedro Cumbe</t>
+  </si>
+  <si>
+    <t>081302803828M</t>
+  </si>
+  <si>
+    <t>+258843807351</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Mucoque</t>
+  </si>
+  <si>
+    <t>Bila</t>
+  </si>
+  <si>
+    <t>Herica Luciano</t>
+  </si>
+  <si>
+    <t>1996-02-15</t>
+  </si>
+  <si>
+    <t>Luciano Francisco Bila</t>
+  </si>
+  <si>
+    <t>Odete Antonio Mutimucuio</t>
+  </si>
+  <si>
+    <t>090101407122B</t>
+  </si>
+  <si>
+    <t>+258829691589</t>
+  </si>
+  <si>
+    <t>Outra - Gaza</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edna De Fausia Delfina </t>
+  </si>
+  <si>
+    <t>1990-09-16</t>
+  </si>
+  <si>
+    <t>Delfina Andre Mabuto</t>
+  </si>
+  <si>
+    <t>100101912494F</t>
+  </si>
+  <si>
+    <t>+258827723577</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Zona-Verde</t>
+  </si>
+  <si>
+    <t>Andissene</t>
+  </si>
+  <si>
+    <t>Andissene Recibo</t>
+  </si>
+  <si>
+    <t>1996-04-10</t>
+  </si>
+  <si>
+    <t>Recibo Andicene</t>
+  </si>
+  <si>
+    <t>Edita Limao</t>
+  </si>
+  <si>
+    <t>050100849073C</t>
+  </si>
+  <si>
+    <t>+258842749131</t>
+  </si>
+  <si>
+    <t>Amade</t>
+  </si>
+  <si>
+    <t>Aissa Zabiba Abdul Azizo</t>
+  </si>
+  <si>
+    <t>1997-10-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zabiba Amade Abdul Azizo </t>
+  </si>
+  <si>
+    <t>080102192917B</t>
+  </si>
+  <si>
+    <t>+258842100879</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -317,6 +1120,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -1017,7 +2105,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1033,7 +2121,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1049,7 +2137,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1065,7 +2153,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1081,7 +2169,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1096,9 +2184,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -1106,7 +2192,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -1117,7 +2203,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1126,7 +2212,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -1138,7 +2224,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -1146,7 +2232,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -1242,7 +2328,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -1285,7 +2371,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -1612,7 +2698,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1628,7 +2714,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1644,7 +2730,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1660,7 +2746,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1676,7 +2762,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1691,9 +2777,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -1701,7 +2785,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -1712,7 +2796,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1721,7 +2805,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -1733,7 +2817,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -1741,7 +2825,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -1837,7 +2921,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -1880,7 +2964,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2207,7 +3291,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2223,7 +3307,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2239,7 +3323,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2255,7 +3339,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2271,7 +3355,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2286,9 +3370,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2296,7 +3378,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2307,7 +3389,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2316,7 +3398,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2328,7 +3410,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2336,7 +3418,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2432,7 +3514,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2475,7 +3557,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2802,7 +3884,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2818,7 +3900,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3009,7 +4091,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3375,7 +4457,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3391,7 +4473,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3407,7 +4489,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3423,7 +4505,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3439,7 +4521,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3454,9 +4536,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3464,7 +4544,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3475,7 +4555,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3484,7 +4564,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3496,7 +4576,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3600,7 +4680,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3643,7 +4723,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3970,7 +5050,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3986,7 +5066,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4002,7 +5082,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4018,7 +5098,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4034,7 +5114,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4049,9 +5129,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>152</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4059,7 +5137,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4070,7 +5148,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4079,7 +5157,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4091,7 +5169,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4099,7 +5177,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4195,7 +5273,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4238,7 +5316,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4565,7 +5643,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4581,7 +5659,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4597,7 +5675,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4613,7 +5691,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4629,7 +5707,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4644,9 +5722,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>161</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4654,7 +5730,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4665,7 +5741,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4674,7 +5750,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4686,7 +5762,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4790,7 +5866,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4833,7 +5909,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5160,7 +6236,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5176,7 +6252,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5192,7 +6268,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5208,7 +6284,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5224,7 +6300,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5239,9 +6315,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5249,7 +6323,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5260,7 +6334,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5269,7 +6343,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5281,7 +6355,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5289,7 +6363,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5385,7 +6459,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5428,7 +6502,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5755,7 +6829,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5771,7 +6845,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5787,7 +6861,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5803,7 +6877,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5819,7 +6893,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5834,9 +6908,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>176</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5844,7 +6916,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5855,7 +6927,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5864,7 +6936,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5876,7 +6948,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5884,7 +6956,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5980,7 +7052,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6023,7 +7095,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6350,7 +7422,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6366,7 +7438,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6382,7 +7454,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6398,7 +7470,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6414,7 +7486,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6429,9 +7501,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6439,7 +7509,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6450,7 +7520,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6459,7 +7529,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6471,7 +7541,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6479,7 +7549,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6575,7 +7645,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6618,7 +7688,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7024,9 +8094,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7034,7 +8102,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7045,7 +8113,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7054,7 +8122,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7066,7 +8134,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7170,7 +8238,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7213,7 +8281,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7540,7 +8608,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7556,7 +8624,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7572,7 +8640,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7588,7 +8656,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7604,7 +8672,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7619,9 +8687,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7629,7 +8695,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7640,7 +8706,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7649,7 +8715,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7661,7 +8727,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7669,7 +8735,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7765,7 +8831,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7808,7 +8874,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8135,7 +9201,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8151,7 +9217,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8167,7 +9233,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8183,7 +9249,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8199,7 +9265,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8214,9 +9280,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>198</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8224,7 +9288,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8235,7 +9299,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8244,7 +9308,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8256,7 +9320,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8264,7 +9328,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8360,7 +9424,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8403,7 +9467,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8730,7 +9794,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8746,7 +9810,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8762,7 +9826,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8778,7 +9842,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8794,7 +9858,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8809,9 +9873,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>207</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8819,7 +9881,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8830,7 +9892,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8839,7 +9901,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8851,7 +9913,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8859,7 +9921,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8955,7 +10017,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8998,7 +10060,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9325,7 +10387,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9341,7 +10403,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9357,7 +10419,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9373,7 +10435,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9389,7 +10451,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9404,9 +10466,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9414,7 +10474,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9425,7 +10485,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9434,7 +10494,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9446,7 +10506,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9454,7 +10514,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9550,7 +10610,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9593,7 +10653,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9920,7 +10980,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9936,7 +10996,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9952,7 +11012,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9968,7 +11028,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9984,7 +11044,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9999,9 +11059,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10009,7 +11067,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10020,7 +11078,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10029,7 +11087,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10041,7 +11099,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10049,7 +11107,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10145,7 +11203,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10188,7 +11246,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10515,7 +11573,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10531,7 +11589,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10547,7 +11605,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10563,7 +11621,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10579,7 +11637,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10594,9 +11652,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10604,7 +11660,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10615,7 +11671,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10624,7 +11680,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10636,7 +11692,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10644,7 +11700,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10740,7 +11796,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10783,7 +11839,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11110,7 +12166,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11126,7 +12182,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11142,7 +12198,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11158,7 +12214,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11174,7 +12230,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11189,9 +12245,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>176</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11199,7 +12253,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11210,7 +12264,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11219,7 +12273,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11231,7 +12285,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11239,7 +12293,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11335,7 +12389,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11378,7 +12432,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11705,7 +12759,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11721,7 +12775,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11737,7 +12791,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11753,7 +12807,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11769,7 +12823,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11784,9 +12838,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>246</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11794,7 +12846,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11805,7 +12857,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11814,7 +12866,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11826,7 +12878,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11834,7 +12886,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11930,7 +12982,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11973,7 +13025,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12300,7 +13352,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12316,7 +13368,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12332,7 +13384,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12348,7 +13400,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12364,7 +13416,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12379,9 +13431,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>255</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12389,7 +13439,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12400,7 +13450,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12409,7 +13459,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12421,7 +13471,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12429,7 +13479,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12525,7 +13575,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12568,7 +13618,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12895,7 +13945,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12911,7 +13961,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12927,7 +13977,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12943,7 +13993,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12959,7 +14009,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12974,9 +14024,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>198</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12984,7 +14032,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12995,7 +14043,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13004,7 +14052,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13016,7 +14064,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13024,7 +14072,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13120,7 +14168,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13163,7 +14211,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13490,7 +14538,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13506,7 +14554,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13522,7 +14570,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13538,7 +14586,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13554,7 +14602,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13569,9 +14617,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13579,7 +14625,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13590,7 +14636,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13599,7 +14645,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13611,7 +14657,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13619,7 +14665,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13715,7 +14761,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13758,7 +14804,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14085,7 +15131,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14101,7 +15147,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14117,7 +15163,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14133,7 +15179,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14149,7 +15195,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14164,9 +15210,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>271</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14174,7 +15218,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14185,7 +15229,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14194,7 +15238,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14206,7 +15250,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14214,7 +15258,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14310,7 +15354,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14353,7 +15397,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14680,7 +15724,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14696,7 +15740,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14712,7 +15756,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14728,7 +15772,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14744,7 +15788,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14759,9 +15803,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14769,7 +15811,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14780,7 +15822,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14789,7 +15831,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14801,7 +15843,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14809,7 +15851,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14905,7 +15947,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14948,7 +15990,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15331,7 +16373,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15347,7 +16389,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15363,7 +16405,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15379,7 +16421,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15395,7 +16437,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15410,9 +16452,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15420,7 +16460,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15431,7 +16471,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15440,7 +16480,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15452,7 +16492,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15460,7 +16500,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15556,7 +16596,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15599,7 +16639,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15926,7 +16966,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15942,7 +16982,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15958,7 +16998,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15974,7 +17014,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15990,7 +17030,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16005,9 +17045,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16015,7 +17053,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16026,7 +17064,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16035,7 +17073,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16047,7 +17085,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16055,7 +17093,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16151,7 +17189,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16194,7 +17232,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16521,7 +17559,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16537,7 +17575,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16553,7 +17591,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16569,7 +17607,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16585,7 +17623,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16600,9 +17638,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16610,7 +17646,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16621,7 +17657,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16630,7 +17666,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16642,7 +17678,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16650,7 +17686,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16746,7 +17782,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16789,7 +17825,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17116,7 +18152,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17132,7 +18168,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17148,7 +18184,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17164,7 +18200,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17180,7 +18216,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17195,9 +18231,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17205,7 +18239,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17216,7 +18250,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17225,7 +18259,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17237,7 +18271,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17245,7 +18279,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17341,7 +18375,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17384,7 +18418,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17711,7 +18745,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17727,7 +18761,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17743,7 +18777,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17759,7 +18793,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17775,7 +18809,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17790,9 +18824,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17800,7 +18832,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17811,7 +18843,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17820,7 +18852,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17832,7 +18864,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17840,7 +18872,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17936,7 +18968,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17979,7 +19011,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18306,7 +19338,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18322,7 +19354,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18338,7 +19370,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18354,7 +19386,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18370,7 +19402,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18385,9 +19417,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18395,7 +19425,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18406,7 +19436,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18415,7 +19445,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18427,7 +19457,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18435,7 +19465,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18531,7 +19561,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18574,7 +19604,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
